--- a/DOCS_TXT_OTHERS/Kanban.xlsx
+++ b/DOCS_TXT_OTHERS/Kanban.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Development\OTHERS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Development\docs\DOCS_TXT_OTHERS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681EF37E-E8BD-4368-9B18-BD0480E07E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13BAD8F-3EF2-4FA7-8FD6-A028855A8289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DF329ACF-37B6-4123-BDA4-26CADA5F66FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF329ACF-37B6-4123-BDA4-26CADA5F66FE}"/>
   </bookViews>
   <sheets>
     <sheet name="KanBan" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,14 +163,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -204,6 +196,22 @@
       <b/>
       <sz val="10"/>
       <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -257,37 +265,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -373,84 +350,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -769,248 +752,251 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C9723D-8BE3-425C-987D-A10AF1195749}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="61.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="4" customWidth="1"/>
     <col min="15" max="15" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="H1" s="33" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="H1" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="34"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="29" t="str">
         <f>H5</f>
         <v>FRONTEND</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="H3" s="20" t="s">
+      <c r="F3" s="27"/>
+      <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="28" t="str">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="29" t="str">
         <f>H4</f>
         <v>RESOLVED</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="H4" s="21" t="s">
+      <c r="F4" s="27"/>
+      <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="29" t="str">
         <f>H5</f>
         <v>FRONTEND</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="H5" s="22" t="s">
+      <c r="F5" s="27"/>
+      <c r="H5" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="28" t="str">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="29" t="str">
         <f>H4</f>
         <v>RESOLVED</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="H6" s="23" t="s">
+      <c r="F6" s="27"/>
+      <c r="H6" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="28" t="str">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="29" t="str">
         <f>H4</f>
         <v>RESOLVED</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="H7" s="27" t="s">
+      <c r="F7" s="27"/>
+      <c r="H7" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="28" t="str">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="29" t="str">
         <f>H4</f>
         <v>RESOLVED</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="F8" s="27"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="28" t="str">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="29" t="str">
         <f>H4</f>
         <v>RESOLVED</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="F9" s="27"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="29" t="str">
         <f>H5</f>
         <v>FRONTEND</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="H10" s="25" t="s">
+      <c r="F10" s="27"/>
+      <c r="H10" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="29" t="str">
         <f>H5</f>
         <v>FRONTEND</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="F11" s="27"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="28" t="str">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="29" t="str">
         <f>H4</f>
         <v>RESOLVED</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="F12" s="27"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="30" t="str">
         <f>H5</f>
         <v>FRONTEND</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="28"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="19">
         <f>COUNTA(B3:B13)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="19">
         <f>COUNTA(C3:C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="19">
         <f>COUNTA(D3:D13)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="19">
         <f>COUNTA(E3:E13)</f>
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1027,68 +1013,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9750F396-2627-477A-B159-382B3C3DD9BC}">
   <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="3">
         <v>0.36180555555555555</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="3">
         <f>B2-A2</f>
         <v>0.17986111111111108</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="3">
         <v>0.75763888888888886</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="3">
         <f>B3-A3</f>
         <v>0.17430555555555549</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="16">
+      <c r="C4" s="3">
         <f>C2+C3</f>
         <v>0.35416666666666657</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="3">
         <v>0.36249999999999999</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="3">
         <f>B7-A7</f>
         <v>0.17916666666666664</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="3">
         <v>0.5708333333333333</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="3">
         <v>0.74583333333333335</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="3">
         <f>B8-A8</f>
         <v>0.17500000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="16">
+      <c r="C9" s="3">
         <f>C7+C8</f>
         <v>0.35416666666666669</v>
       </c>

--- a/DOCS_TXT_OTHERS/Kanban.xlsx
+++ b/DOCS_TXT_OTHERS/Kanban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Development\docs\DOCS_TXT_OTHERS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13BAD8F-3EF2-4FA7-8FD6-A028855A8289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80C3C30-B112-449B-9B30-9C80FA0DA5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF329ACF-37B6-4123-BDA4-26CADA5F66FE}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>APP</t>
-  </si>
-  <si>
     <t>Environmental Control Waste</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>DOUBT?</t>
+  </si>
+  <si>
+    <t>Application</t>
   </si>
 </sst>
 </file>
@@ -384,17 +384,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -434,6 +425,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,7 +754,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,205 +769,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="H1" s="13" t="s">
-        <v>25</v>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="H1" s="29" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="29" t="str">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="26" t="str">
         <f>H5</f>
         <v>FRONTEND</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="F3" s="24"/>
       <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="29" t="str">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="26" t="str">
         <f>H4</f>
         <v>RESOLVED</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="24"/>
       <c r="H4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="29" t="str">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="26" t="str">
         <f>H5</f>
         <v>FRONTEND</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="24"/>
       <c r="H5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="29" t="str">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="26" t="str">
         <f>H4</f>
         <v>RESOLVED</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="24"/>
       <c r="H6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="29" t="str">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="26" t="str">
         <f>H4</f>
         <v>RESOLVED</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="24"/>
       <c r="H7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="29" t="str">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="26" t="str">
         <f>H4</f>
         <v>RESOLVED</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="24"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="29" t="str">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="26" t="str">
         <f>H4</f>
         <v>RESOLVED</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="24"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="29" t="str">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="26" t="str">
         <f>H5</f>
         <v>FRONTEND</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="24"/>
       <c r="H10" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="29" t="str">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="26" t="str">
         <f>H5</f>
         <v>FRONTEND</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="24"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="29" t="str">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="26" t="str">
         <f>H4</f>
         <v>RESOLVED</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="24"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="30" t="str">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="27" t="str">
         <f>H5</f>
         <v>FRONTEND</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="25"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -975,22 +975,22 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="16">
         <f>COUNTA(B3:B13)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="16">
         <f>COUNTA(C3:C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="16">
         <f>COUNTA(D3:D13)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <f>COUNTA(E3:E13)</f>
         <v>11</v>
       </c>
